--- a/medicine/Mort/Cimetière_Nord_de_Saint-Mandé/Cimetière_Nord_de_Saint-Mandé.xlsx
+++ b/medicine/Mort/Cimetière_Nord_de_Saint-Mandé/Cimetière_Nord_de_Saint-Mandé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Nord_de_Saint-Mand%C3%A9</t>
+          <t>Cimetière_Nord_de_Saint-Mandé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Nord de Saint-Mandé est un des deux cimetières de cette commune[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Nord de Saint-Mandé est un des deux cimetières de cette commune. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Nord_de_Saint-Mand%C3%A9</t>
+          <t>Cimetière_Nord_de_Saint-Mandé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé à l'intersection de l'avenue Joffre à Saint-Mandé et de la rue de Lagny à Vincennes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Nord_de_Saint-Mand%C3%A9</t>
+          <t>Cimetière_Nord_de_Saint-Mandé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Nord_de_Saint-Mand%C3%A9</t>
+          <t>Cimetière_Nord_de_Saint-Mandé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,13 +584,15 @@
           <t>Personnes inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Augier (1924-2007), acteur et doubleur ;
-Clément-Louis-Marie-Anne Belle (1722-1806), peintre d'histoire[2] ;
+Clément-Louis-Marie-Anne Belle (1722-1806), peintre d'histoire ;
 Armand Carrel (1800-1836), journaliste et essayiste mort en duel contre Émile de Girardin ;
 Joseph Bienaimé Caventou (1795-1877), pharmacien qui isola la quinine ;
-Juliette Drouet[3] (1806-1883), maîtresse de Victor Hugo ;
+Juliette Drouet (1806-1883), maîtresse de Victor Hugo ;
 Robert Oubron (1913-1989), coureur cycliste ;
 Grandville (1803-1847), illustrateur et lithographe ;
 Frédéric-Eugène Piat (1827-1903), sculpteur et fondateur du musée des arts décoratifs de Troyes ;
